--- a/REGULAR/TICC/PERIDO, MARITES.xlsx
+++ b/REGULAR/TICC/PERIDO, MARITES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="271">
   <si>
     <t>PERIOD</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>10/11-13/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>02/21-23/2024</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1736,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1779,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1843,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1903,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1969,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2032,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2130,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2189,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2254,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2297,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2372,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2558,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2624,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2682,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2748,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2804,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2879,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2916,7 +2922,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2988,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3044,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +3142,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3205,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3271,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K594" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3638,12 +3644,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K594"/>
+  <dimension ref="A2:K595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A571" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C581" sqref="C581"/>
+      <selection pane="bottomLeft" activeCell="B585" sqref="B585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,7 +3810,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>179.26099999999991</v>
+        <v>178.76099999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3814,7 +3820,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>217</v>
+        <v>219.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16216,13 +16222,15 @@
       <c r="B581" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C581" s="13"/>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
@@ -16232,7 +16240,9 @@
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="41"/>
+      <c r="A582" s="53" t="s">
+        <v>269</v>
+      </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -16245,18 +16255,22 @@
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="56"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40"/>
+      <c r="A583" s="41">
+        <v>45292</v>
+      </c>
       <c r="B583" s="20"/>
-      <c r="C583" s="13"/>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
@@ -16264,10 +16278,16 @@
       <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
-      <c r="B584" s="20"/>
+      <c r="A584" s="41">
+        <v>45323</v>
+      </c>
+      <c r="B584" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="C584" s="13"/>
-      <c r="D584" s="39"/>
+      <c r="D584" s="39">
+        <v>3</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
       <c r="G584" s="13" t="str">
@@ -16277,10 +16297,14 @@
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="20" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40"/>
+      <c r="A585" s="41">
+        <v>45352</v>
+      </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -16296,7 +16320,9 @@
       <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
+      <c r="A586" s="41">
+        <v>45383</v>
+      </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
@@ -16312,7 +16338,9 @@
       <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
+      <c r="A587" s="41">
+        <v>45413</v>
+      </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -16328,7 +16356,9 @@
       <c r="K587" s="20"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40"/>
+      <c r="A588" s="41">
+        <v>45444</v>
+      </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
@@ -16344,7 +16374,9 @@
       <c r="K588" s="20"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40"/>
+      <c r="A589" s="41">
+        <v>45474</v>
+      </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -16360,7 +16392,9 @@
       <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40"/>
+      <c r="A590" s="41">
+        <v>45505</v>
+      </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
@@ -16376,7 +16410,9 @@
       <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40"/>
+      <c r="A591" s="41">
+        <v>45536</v>
+      </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -16392,7 +16428,9 @@
       <c r="K591" s="20"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="40"/>
+      <c r="A592" s="41">
+        <v>45566</v>
+      </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -16408,7 +16446,9 @@
       <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="40"/>
+      <c r="A593" s="41">
+        <v>45597</v>
+      </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
@@ -16424,20 +16464,38 @@
       <c r="K593" s="20"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="41"/>
-      <c r="B594" s="15"/>
-      <c r="C594" s="42"/>
-      <c r="D594" s="43"/>
+      <c r="A594" s="41">
+        <v>45627</v>
+      </c>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39"/>
       <c r="E594" s="9"/>
-      <c r="F594" s="15"/>
-      <c r="G594" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H594" s="43"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="39"/>
       <c r="I594" s="9"/>
-      <c r="J594" s="12"/>
-      <c r="K594" s="15"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="41"/>
+      <c r="B595" s="15"/>
+      <c r="C595" s="42"/>
+      <c r="D595" s="43"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="15"/>
+      <c r="G595" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="43"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="12"/>
+      <c r="K595" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16607,7 +16665,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>396.26099999999991</v>
+        <v>398.26099999999991</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
